--- a/data/print_templates/B__donation_certificate__shipment.xlsx
+++ b/data/print_templates/B__donation_certificate__shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/Desktop/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{221F75D1-AF01-D748-9884-3F1813804B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863001F-EBD7-904A-BFC7-B57542FC504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{4C71C210-4FF9-9A46-BC81-FE3C4EB466A9}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'attestation donation'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'attestation donation'!$A$1:$H$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ATTESTATION DE DONATION</t>
   </si>
@@ -189,19 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -215,6 +231,15 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +269,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>584836</xdr:colOff>
+      <xdr:colOff>584835</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>49529</xdr:rowOff>
     </xdr:to>
@@ -285,56 +310,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>181690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6912FC-4DF7-B641-97E7-24DBAF55FC34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1270000" y="76200"/>
-          <a:ext cx="2590800" cy="753190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -349,15 +324,81 @@
       <sheetName val="Attestation A4"/>
       <sheetName val="Attestation A5 OK"/>
       <sheetName val="Etiquette A5 en cours"/>
+      <sheetName val="Attestation Donation"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,59 +720,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176D9FB8-1C78-9C4C-A013-0D237EE59D74}">
   <sheetPr>
     <tabColor theme="6"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="8" width="11" style="1"/>
+    <col min="6" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -739,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -755,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -763,32 +836,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],5,FALSE)),"","Structure :")</f>
         <v>Structure :</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -797,24 +870,24 @@
         <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],6,FALSE)),"","Adresse :")</f>
         <v>Adresse :</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="str">
         <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],5,FALSE)),"","Code Postal :")</f>
         <v>Code Postal :</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
@@ -850,7 +923,7 @@
         <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],14,FALSE)),"","En cas d'urgence :")</f>
         <v>En cas d'urgence :</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -865,12 +938,12 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -881,19 +954,20 @@
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <f ca="1">TODAY()</f>
-        <v>46082</v>
+        <v>46083</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A2:G5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/print_templates/B__donation_certificate__shipment.xlsx
+++ b/data/print_templates/B__donation_certificate__shipment.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863001F-EBD7-904A-BFC7-B57542FC504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6212FB-34D1-F145-AE8E-EA44022C0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{4C71C210-4FF9-9A46-BC81-FE3C4EB466A9}"/>
   </bookViews>
   <sheets>
     <sheet name="attestation donation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'attestation donation'!$A$1:$H$34</definedName>
   </definedNames>
@@ -41,30 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ATTESTATION DE DONATION</t>
   </si>
@@ -154,6 +129,18 @@
   </si>
   <si>
     <t>Contact urgence</t>
+  </si>
+  <si>
+    <t>Structure :</t>
+  </si>
+  <si>
+    <t>Code Postal :</t>
+  </si>
+  <si>
+    <t>Mail :</t>
+  </si>
+  <si>
+    <t>En cas d'urgence :</t>
   </si>
 </sst>
 </file>
@@ -310,95 +297,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8D2A8F-B422-2890-F853-7F6418A54F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1939637" y="57727"/>
+          <a:ext cx="2597727" cy="799366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Base"/>
-      <sheetName val="Attestation A4"/>
-      <sheetName val="Attestation A5 OK"/>
-      <sheetName val="Etiquette A5 en cours"/>
-      <sheetName val="Attestation Donation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,7 +674,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,9 +692,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -857,25 +804,22 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="str">
-        <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],5,FALSE)),"","Structure :")</f>
-        <v>Structure :</v>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="str">
-        <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],6,FALSE)),"","Adresse :")</f>
-        <v>Adresse :</v>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="str">
-        <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],5,FALSE)),"","Code Postal :")</f>
-        <v>Code Postal :</v>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -907,9 +851,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="str">
-        <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],13,FALSE)),"","Mail :")</f>
-        <v>Mail :</v>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -919,9 +862,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="str">
-        <f>IF(ISBLANK(VLOOKUP(B7,[1]!Données[#Data],14,FALSE)),"","En cas d'urgence :")</f>
-        <v>En cas d'urgence :</v>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>29</v>
